--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -494,6 +494,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
